--- a/Prices/Пустая_болванка_для_цен3.xlsx
+++ b/Prices/Пустая_болванка_для_цен3.xlsx
@@ -51,13 +51,13 @@
     <t>Ядро процессора</t>
   </si>
   <si>
-    <t>Код процессора</t>
-  </si>
-  <si>
     <t>Диагональ экрана</t>
   </si>
   <si>
     <t>Сенсорный экран</t>
+  </si>
+  <si>
+    <t>Процессор</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="B1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
@@ -491,10 +491,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
